--- a/data/trans_orig/P1002-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>64349</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50424</v>
+        <v>50258</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81956</v>
+        <v>81491</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1101606497007816</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08632172876285257</v>
+        <v>0.08603790050377778</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1403019698172053</v>
+        <v>0.1395050243664833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>122</v>
@@ -765,19 +765,19 @@
         <v>127718</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>108437</v>
+        <v>105836</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150118</v>
+        <v>149230</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1384725988354437</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1175678611232851</v>
+        <v>0.1147484201043395</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.162759389367961</v>
+        <v>0.1617964945186353</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -786,19 +786,19 @@
         <v>192067</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>166269</v>
+        <v>166536</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>218245</v>
+        <v>219391</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1274945295997678</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1103696914558725</v>
+        <v>0.110547044052264</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1448711281008337</v>
+        <v>0.1456318112460584</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>519792</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>502185</v>
+        <v>502650</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>533717</v>
+        <v>533883</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8898393502992183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8596980301827946</v>
+        <v>0.8604949756335167</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9136782712371474</v>
+        <v>0.9139620994962222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>763</v>
@@ -836,19 +836,19 @@
         <v>794615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>772215</v>
+        <v>773103</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>813896</v>
+        <v>816497</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8615274011645563</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8372406106320391</v>
+        <v>0.838203505481365</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8824321388767149</v>
+        <v>0.8852515798956606</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1274</v>
@@ -857,19 +857,19 @@
         <v>1314407</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1288229</v>
+        <v>1287083</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1340205</v>
+        <v>1339938</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8725054704002322</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8551288718991663</v>
+        <v>0.8543681887539414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8896303085441275</v>
+        <v>0.8894529559477357</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>59605</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46534</v>
+        <v>44753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75827</v>
+        <v>74735</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05529753765910992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04317077117337215</v>
+        <v>0.04151928355370185</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07034741424589369</v>
+        <v>0.06933387452103598</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -982,19 +982,19 @@
         <v>69393</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53417</v>
+        <v>55188</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84979</v>
+        <v>87018</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06561728519109204</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05051098578285396</v>
+        <v>0.05218510779131343</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08035521650244262</v>
+        <v>0.08228326152669628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>127</v>
@@ -1003,19 +1003,19 @@
         <v>128998</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108593</v>
+        <v>108306</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>153939</v>
+        <v>153520</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06040822487152801</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05085293482906539</v>
+        <v>0.05071832967868636</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07208814142218668</v>
+        <v>0.07189166266309237</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1018289</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1002067</v>
+        <v>1003159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1031360</v>
+        <v>1033141</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9447024623408901</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9296525857541064</v>
+        <v>0.930666125478964</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9568292288266279</v>
+        <v>0.9584807164462982</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>959</v>
@@ -1053,19 +1053,19 @@
         <v>988145</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>972559</v>
+        <v>970520</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1004121</v>
+        <v>1002350</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.934382714808908</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9196447834975574</v>
+        <v>0.9177167384733037</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9494890142171462</v>
+        <v>0.9478148922086865</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1956</v>
@@ -1074,19 +1074,19 @@
         <v>2006434</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1981493</v>
+        <v>1981912</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2026839</v>
+        <v>2027126</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.939591775128472</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9279118585778133</v>
+        <v>0.9281083373369077</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9491470651709346</v>
+        <v>0.9492816703213137</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>28738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19385</v>
+        <v>18923</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41388</v>
+        <v>41508</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02562260984399199</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0172830873305317</v>
+        <v>0.01687135718833974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03690117471849368</v>
+        <v>0.03700802573960043</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -1199,19 +1199,19 @@
         <v>61294</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47451</v>
+        <v>47469</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77750</v>
+        <v>78103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06166773253969899</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04774017938877237</v>
+        <v>0.04775851913926636</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07822379481819212</v>
+        <v>0.07857898482059342</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -1220,19 +1220,19 @@
         <v>90032</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74525</v>
+        <v>70865</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>111576</v>
+        <v>107621</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04255766124475385</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03522742640681272</v>
+        <v>0.03349757493024466</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05274119839791106</v>
+        <v>0.05087198150491551</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1092856</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1080206</v>
+        <v>1080086</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1102209</v>
+        <v>1102671</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.974377390156008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9630988252815065</v>
+        <v>0.9629919742603996</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9827169126694686</v>
+        <v>0.9831286428116601</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>923</v>
@@ -1270,19 +1270,19 @@
         <v>932646</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>916190</v>
+        <v>915837</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>946489</v>
+        <v>946471</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.938332267460301</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9217762051818079</v>
+        <v>0.9214210151794066</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9522598206112276</v>
+        <v>0.9522414808607337</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1998</v>
@@ -1291,19 +1291,19 @@
         <v>2025502</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2003958</v>
+        <v>2007913</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2041009</v>
+        <v>2044669</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9574423387552462</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9472588016020889</v>
+        <v>0.9491280184950848</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9647725735931872</v>
+        <v>0.9665024250697554</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11531</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5886</v>
+        <v>5812</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19402</v>
+        <v>18751</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02578460789786137</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01316191689214482</v>
+        <v>0.01299576466159195</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04338615351414166</v>
+        <v>0.04192914832643827</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>19704</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12135</v>
+        <v>12096</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29876</v>
+        <v>29144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0577565435778861</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03557134746652485</v>
+        <v>0.03545674571628366</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0875734463585509</v>
+        <v>0.08542682511625108</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -1437,19 +1437,19 @@
         <v>31235</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21619</v>
+        <v>21470</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43458</v>
+        <v>44285</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03962031347772666</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02742275987184351</v>
+        <v>0.02723397830224292</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05512526892800615</v>
+        <v>0.05617427255423049</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>435669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427798</v>
+        <v>428449</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>441314</v>
+        <v>441388</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9742153921021386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9566138464858583</v>
+        <v>0.9580708516735617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9868380831078551</v>
+        <v>0.9870042353384081</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>320</v>
@@ -1487,19 +1487,19 @@
         <v>321454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>311282</v>
+        <v>312014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>329023</v>
+        <v>329062</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9422434564221139</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9124265536414496</v>
+        <v>0.9145731748837489</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9644286525334753</v>
+        <v>0.9645432542837167</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>744</v>
@@ -1508,19 +1508,19 @@
         <v>757123</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>744900</v>
+        <v>744073</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>766739</v>
+        <v>766888</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9603796865222733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9448747310719939</v>
+        <v>0.9438257274457693</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9725772401281565</v>
+        <v>0.9727660216977571</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>164223</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>139046</v>
+        <v>141255</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>190705</v>
+        <v>191816</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05083008153662956</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04303712487227775</v>
+        <v>0.04372108383551535</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05902663844729011</v>
+        <v>0.05937039183057609</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>269</v>
@@ -1633,19 +1633,19 @@
         <v>278109</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>249179</v>
+        <v>249815</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>311423</v>
+        <v>309731</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08389483165475135</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0751676867998808</v>
+        <v>0.07535972785983143</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09394433165140759</v>
+        <v>0.09343416944096368</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>430</v>
@@ -1654,19 +1654,19 @@
         <v>442332</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>401387</v>
+        <v>406515</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>483952</v>
+        <v>486327</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06757496333166796</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06131973779044833</v>
+        <v>0.06210313190760514</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07393329831449194</v>
+        <v>0.0742961135636727</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3066606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3040124</v>
+        <v>3039013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3091783</v>
+        <v>3089574</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9491699184633704</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9409733615527102</v>
+        <v>0.9406296081694239</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9569628751277223</v>
+        <v>0.9562789161644847</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2965</v>
@@ -1704,19 +1704,19 @@
         <v>3036860</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3003546</v>
+        <v>3005238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3065790</v>
+        <v>3065154</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9161051683452487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9060556683485924</v>
+        <v>0.9065658305590363</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9248323132001192</v>
+        <v>0.9246402721401685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5972</v>
@@ -1725,19 +1725,19 @@
         <v>6103466</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6061846</v>
+        <v>6059471</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6144411</v>
+        <v>6139283</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.932425036668332</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9260667016855081</v>
+        <v>0.9257038864363273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9386802622095516</v>
+        <v>0.9378968680923949</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>81378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65003</v>
+        <v>63776</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102334</v>
+        <v>98876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07795322162231666</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06226699816324436</v>
+        <v>0.061091935312758</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09802756919071727</v>
+        <v>0.09471447881139992</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>202</v>
@@ -2090,19 +2090,19 @@
         <v>219625</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>193308</v>
+        <v>194427</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>245971</v>
+        <v>249865</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1961066895714539</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1726073614962325</v>
+        <v>0.17360642714848</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2196307344107911</v>
+        <v>0.2231077804812017</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>278</v>
@@ -2111,19 +2111,19 @@
         <v>301004</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>265918</v>
+        <v>270622</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>332779</v>
+        <v>339770</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1391046945909</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.122890535854672</v>
+        <v>0.1250640733738697</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1537893371068351</v>
+        <v>0.1570203133354876</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>962557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>941601</v>
+        <v>945059</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>978932</v>
+        <v>980159</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9220467783776833</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9019724308092826</v>
+        <v>0.9052855211886001</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9377330018367555</v>
+        <v>0.9389080646872415</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>829</v>
@@ -2161,19 +2161,19 @@
         <v>900303</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>873957</v>
+        <v>870063</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>926620</v>
+        <v>925501</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8038933104285461</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7803692655892088</v>
+        <v>0.7768922195187983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8273926385037674</v>
+        <v>0.82639357285152</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1731</v>
@@ -2182,19 +2182,19 @@
         <v>1862859</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1831084</v>
+        <v>1824093</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1897945</v>
+        <v>1893241</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8608953054091</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8462106628931648</v>
+        <v>0.8429796866645123</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8771094641453279</v>
+        <v>0.8749359266261303</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>69125</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52908</v>
+        <v>53265</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89062</v>
+        <v>89019</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07081450277652454</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05420119132218813</v>
+        <v>0.0545674685834564</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09123947158917808</v>
+        <v>0.09119511604009231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>136</v>
@@ -2307,19 +2307,19 @@
         <v>145840</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>124333</v>
+        <v>124342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>171289</v>
+        <v>169726</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1335208542140461</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1138311395916551</v>
+        <v>0.1138387043632059</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1568206773741097</v>
+        <v>0.1553896758842645</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>198</v>
@@ -2328,19 +2328,19 @@
         <v>214964</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>184236</v>
+        <v>185446</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>246211</v>
+        <v>245492</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1039279446481221</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08907171835101417</v>
+        <v>0.08965704102382779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1190345022702336</v>
+        <v>0.1186870905745399</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>907011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>887074</v>
+        <v>887117</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>923228</v>
+        <v>922871</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9291854972234754</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9087605284108219</v>
+        <v>0.9088048839599078</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9457988086778119</v>
+        <v>0.9454325314165436</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>882</v>
@@ -2378,19 +2378,19 @@
         <v>946422</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>920973</v>
+        <v>922536</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>967929</v>
+        <v>967920</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.866479145785954</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8431793226258902</v>
+        <v>0.8446103241157356</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.886168860408345</v>
+        <v>0.8861612956367941</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1743</v>
@@ -2399,19 +2399,19 @@
         <v>1853434</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1822187</v>
+        <v>1822906</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1884162</v>
+        <v>1882952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8960720553518779</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8809654977297665</v>
+        <v>0.8813129094254601</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9109282816489859</v>
+        <v>0.9103429589761721</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>55385</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41492</v>
+        <v>42050</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73037</v>
+        <v>73830</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06257367175276882</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04687797748320496</v>
+        <v>0.04750780952467359</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08251713945682142</v>
+        <v>0.08341314565574708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -2524,19 +2524,19 @@
         <v>82973</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67484</v>
+        <v>66619</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101435</v>
+        <v>101279</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09473978190255719</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07705494882864938</v>
+        <v>0.07606677393888846</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1158199322147449</v>
+        <v>0.1156421024154324</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -2545,19 +2545,19 @@
         <v>138358</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117531</v>
+        <v>116760</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>165471</v>
+        <v>162890</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07857160995112712</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0667443636327399</v>
+        <v>0.06630639966762032</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09396913251256295</v>
+        <v>0.09250322989261643</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>829730</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>812078</v>
+        <v>811285</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>843623</v>
+        <v>843065</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9374263282472312</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9174828605431784</v>
+        <v>0.9165868543442529</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9531220225167947</v>
+        <v>0.9524921904753264</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>743</v>
@@ -2595,19 +2595,19 @@
         <v>792823</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>774361</v>
+        <v>774517</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>808312</v>
+        <v>809177</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9052602180974428</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8841800677852549</v>
+        <v>0.8843578975845681</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9229450511713504</v>
+        <v>0.9239332260611116</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1524</v>
@@ -2616,19 +2616,19 @@
         <v>1622553</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1595440</v>
+        <v>1598021</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1643380</v>
+        <v>1644151</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9214283900488729</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.906030867487437</v>
+        <v>0.9074967701073835</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9332556363672602</v>
+        <v>0.9336936003323797</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>23600</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15274</v>
+        <v>14306</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35702</v>
+        <v>35622</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0470140339333643</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03042823419492197</v>
+        <v>0.02850028387693605</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07112373205563334</v>
+        <v>0.07096357554013838</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -2741,19 +2741,19 @@
         <v>42640</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31605</v>
+        <v>32064</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57304</v>
+        <v>57036</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09418397396843883</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06980802729238637</v>
+        <v>0.07082331784462501</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1265735152390577</v>
+        <v>0.1259808215231629</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -2762,19 +2762,19 @@
         <v>66240</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51433</v>
+        <v>51484</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85138</v>
+        <v>85504</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06938274668604194</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05387339733765532</v>
+        <v>0.05392651297483605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08917735491337513</v>
+        <v>0.0895603169070413</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>478369</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>466267</v>
+        <v>466347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>486695</v>
+        <v>487663</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9529859660666357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9288762679443667</v>
+        <v>0.9290364244598617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9695717658050781</v>
+        <v>0.9714997161230642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>371</v>
@@ -2812,19 +2812,19 @@
         <v>410096</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>395432</v>
+        <v>395700</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>421131</v>
+        <v>420672</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9058160260315612</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8734264847609424</v>
+        <v>0.8740191784768371</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9301919727076137</v>
+        <v>0.929176682155375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>810</v>
@@ -2833,19 +2833,19 @@
         <v>888464</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>869566</v>
+        <v>869200</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>903271</v>
+        <v>903220</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9306172533139581</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9108226450866249</v>
+        <v>0.9104396830929586</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9461266026623447</v>
+        <v>0.946073487025164</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>229487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>201086</v>
+        <v>199685</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>265058</v>
+        <v>264275</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06735448338997352</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05901873397285317</v>
+        <v>0.05860757890330501</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07779449058750348</v>
+        <v>0.07756477677263567</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>457</v>
@@ -2958,19 +2958,19 @@
         <v>491078</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>448274</v>
+        <v>449067</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>535989</v>
+        <v>532522</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1386944162800784</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1266052897129417</v>
+        <v>0.1268293300571182</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1513785319758558</v>
+        <v>0.1503991469992833</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>665</v>
@@ -2979,19 +2979,19 @@
         <v>720565</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>670758</v>
+        <v>672068</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>779248</v>
+        <v>772904</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1037101761577422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09654138731878292</v>
+        <v>0.0967299529640533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.112156351725223</v>
+        <v>0.1112431979084386</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3177668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3142097</v>
+        <v>3142880</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3206069</v>
+        <v>3207470</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9326455166100265</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9222055094124967</v>
+        <v>0.9224352232273644</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9409812660271469</v>
+        <v>0.941392421096695</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2825</v>
@@ -3029,19 +3029,19 @@
         <v>3049644</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3004733</v>
+        <v>3008200</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3092448</v>
+        <v>3091655</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8613055837199216</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8486214680241443</v>
+        <v>0.8496008530007173</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8733947102870584</v>
+        <v>0.8731706699428817</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5808</v>
@@ -3050,19 +3050,19 @@
         <v>6227311</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6168628</v>
+        <v>6174972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6277118</v>
+        <v>6275808</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8962898238422579</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.887843648274777</v>
+        <v>0.8887568020915614</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9034586126812171</v>
+        <v>0.9032700470359468</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>87176</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69162</v>
+        <v>68744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105728</v>
+        <v>105641</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07728357006556777</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06131408062466139</v>
+        <v>0.06094300519959901</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09373057125405489</v>
+        <v>0.09365329164715135</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>172</v>
@@ -3415,19 +3415,19 @@
         <v>190729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165308</v>
+        <v>164805</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>214609</v>
+        <v>216808</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1514251721260509</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1312428802806031</v>
+        <v>0.1308431077432989</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1703837719243721</v>
+        <v>0.1721300591648396</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>253</v>
@@ -3436,19 +3436,19 @@
         <v>277905</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>248821</v>
+        <v>246265</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>310034</v>
+        <v>312945</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1163971134314008</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1042158835585702</v>
+        <v>0.1031449499957932</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1298541355835653</v>
+        <v>0.1310733217614294</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1040821</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1022269</v>
+        <v>1022356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1058835</v>
+        <v>1059253</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9227164299344323</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9062694287459451</v>
+        <v>0.9063467083528485</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9386859193753386</v>
+        <v>0.9390569948004009</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1016</v>
@@ -3486,19 +3486,19 @@
         <v>1068832</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1044952</v>
+        <v>1042753</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1094253</v>
+        <v>1094756</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8485748278739491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.829616228075628</v>
+        <v>0.8278699408351603</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8687571197193971</v>
+        <v>0.869156892256701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2001</v>
@@ -3507,19 +3507,19 @@
         <v>2109653</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2077524</v>
+        <v>2074613</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2138737</v>
+        <v>2141293</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8836028865685992</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8701458644164347</v>
+        <v>0.8689266782385705</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8957841164414295</v>
+        <v>0.8968550500042067</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>43240</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30945</v>
+        <v>31775</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58523</v>
+        <v>57555</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04757816844928816</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03404945240327289</v>
+        <v>0.03496281242522387</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06439417031927409</v>
+        <v>0.06332918527591358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -3632,19 +3632,19 @@
         <v>84645</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66324</v>
+        <v>67170</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>103376</v>
+        <v>103667</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08410027866826018</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06589701247344766</v>
+        <v>0.06673815911854913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1027104545610435</v>
+        <v>0.1030004473927961</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -3653,19 +3653,19 @@
         <v>127885</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>106324</v>
+        <v>106137</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151838</v>
+        <v>153008</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06677025337963106</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05551274584328234</v>
+        <v>0.05541558394019756</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07927656044677414</v>
+        <v>0.07988706379571961</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>865585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>850302</v>
+        <v>851270</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>877880</v>
+        <v>877050</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9524218315507118</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9356058296807259</v>
+        <v>0.9366708147240864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9659505475967272</v>
+        <v>0.9650371875747762</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>874</v>
@@ -3703,19 +3703,19 @@
         <v>921830</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>903099</v>
+        <v>902808</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>940151</v>
+        <v>939305</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9158997213317398</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8972895454389566</v>
+        <v>0.8969995526072049</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9341029875265523</v>
+        <v>0.9332618408814509</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1713</v>
@@ -3724,19 +3724,19 @@
         <v>1787415</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1763462</v>
+        <v>1762292</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1808976</v>
+        <v>1809163</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9332297466203689</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9207234395532259</v>
+        <v>0.9201129362042804</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9444872541567177</v>
+        <v>0.9445844160598024</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>33069</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23822</v>
+        <v>23521</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46634</v>
+        <v>46672</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0401438654786551</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02891869416748625</v>
+        <v>0.02855346978176168</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05661135531437018</v>
+        <v>0.05665787627045406</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3849,19 +3849,19 @@
         <v>59437</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46371</v>
+        <v>45594</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76317</v>
+        <v>79011</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07708521469935208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0601399161212443</v>
+        <v>0.05913169194798659</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09897667838242517</v>
+        <v>0.1024713312784106</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>84</v>
@@ -3870,19 +3870,19 @@
         <v>92506</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75098</v>
+        <v>76054</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>113601</v>
+        <v>114210</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05800417854274836</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04708898961922196</v>
+        <v>0.04768807438346832</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07123113271139608</v>
+        <v>0.07161313310560848</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>790690</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>777125</v>
+        <v>777087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>799937</v>
+        <v>800238</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9598561345213449</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9433886446856298</v>
+        <v>0.943342123729546</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9710813058325137</v>
+        <v>0.9714465302182382</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>677</v>
@@ -3920,19 +3920,19 @@
         <v>711622</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>694742</v>
+        <v>692048</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>724688</v>
+        <v>725465</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.922914785300648</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9010233216175746</v>
+        <v>0.8975286687215894</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9398600838787554</v>
+        <v>0.9408683080520132</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1431</v>
@@ -3941,19 +3941,19 @@
         <v>1502312</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1481217</v>
+        <v>1480608</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1519720</v>
+        <v>1518764</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9419958214572516</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9287688672886039</v>
+        <v>0.9283868668943914</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9529110103807779</v>
+        <v>0.9523119256165317</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>14330</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7654</v>
+        <v>7708</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24269</v>
+        <v>23691</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02828094147949006</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01510621480473176</v>
+        <v>0.01521242692054782</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04789573270467913</v>
+        <v>0.04675535235089726</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -4066,19 +4066,19 @@
         <v>39422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28657</v>
+        <v>28465</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53123</v>
+        <v>53832</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08050340726171312</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05852017023515164</v>
+        <v>0.05812750794337624</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1084802825022996</v>
+        <v>0.1099295188720569</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -4087,19 +4087,19 @@
         <v>53752</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40935</v>
+        <v>40034</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70904</v>
+        <v>69046</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05394659116566217</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04108335773230325</v>
+        <v>0.04017896180327765</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07116008743252976</v>
+        <v>0.06929547955571159</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>492371</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>482432</v>
+        <v>483010</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>499047</v>
+        <v>498993</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9717190585205099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9521042672953207</v>
+        <v>0.9532446476491028</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9848937851952682</v>
+        <v>0.9847875730794524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>419</v>
@@ -4137,19 +4137,19 @@
         <v>450276</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>436575</v>
+        <v>435866</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>461041</v>
+        <v>461233</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9194965927382869</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8915197174977004</v>
+        <v>0.8900704811279431</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9414798297648482</v>
+        <v>0.9418724920566228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>877</v>
@@ -4158,19 +4158,19 @@
         <v>942646</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>925494</v>
+        <v>927352</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>955463</v>
+        <v>956364</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9460534088343379</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9288399125674697</v>
+        <v>0.9307045204442886</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9589166422676967</v>
+        <v>0.9598210381967226</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>177815</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150799</v>
+        <v>154026</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203920</v>
+        <v>208193</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.052806601872112</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04478368896590049</v>
+        <v>0.04574197736483483</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06055927408775753</v>
+        <v>0.06182807873909501</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>336</v>
@@ -4283,19 +4283,19 @@
         <v>374234</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>341181</v>
+        <v>338593</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>415079</v>
+        <v>412966</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1061116076259686</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09673968963984769</v>
+        <v>0.09600592959261589</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1176931002222301</v>
+        <v>0.1170939070877502</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>505</v>
@@ -4304,19 +4304,19 @@
         <v>552048</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>500714</v>
+        <v>502885</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>598720</v>
+        <v>599074</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08007577105600817</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07262954553477022</v>
+        <v>0.07294450951569433</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08684563740296133</v>
+        <v>0.08689688049684231</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3189467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3163362</v>
+        <v>3159089</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3216483</v>
+        <v>3213256</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9471933981278881</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9394407259122425</v>
+        <v>0.938171921260905</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9552163110340995</v>
+        <v>0.9542580226351652</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2986</v>
@@ -4354,19 +4354,19 @@
         <v>3152558</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3111713</v>
+        <v>3113826</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3185611</v>
+        <v>3188199</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8938883923740314</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8823068997777694</v>
+        <v>0.8829060929122499</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9032603103601523</v>
+        <v>0.9039940704073843</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6022</v>
@@ -4375,19 +4375,19 @@
         <v>6342027</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6295355</v>
+        <v>6295001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6393361</v>
+        <v>6391190</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9199242289439918</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9131543625970387</v>
+        <v>0.9131031195031576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9273704544652299</v>
+        <v>0.9270554904843056</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>66630</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50649</v>
+        <v>51677</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81164</v>
+        <v>82465</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1335966262615993</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1015545007067237</v>
+        <v>0.1036160635088833</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1627392787096308</v>
+        <v>0.165346865421519</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>195</v>
@@ -4740,19 +4740,19 @@
         <v>131340</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>114158</v>
+        <v>113412</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>149184</v>
+        <v>149076</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2108115750922756</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1832334423593895</v>
+        <v>0.1820360023823248</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2394540556492554</v>
+        <v>0.2392793937527558</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>267</v>
@@ -4761,19 +4761,19 @@
         <v>197969</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>174684</v>
+        <v>173528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220009</v>
+        <v>223050</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1764814207566409</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1557232604162178</v>
+        <v>0.1546925927342253</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1961285437808932</v>
+        <v>0.1988397482567672</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>432109</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417575</v>
+        <v>416274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448090</v>
+        <v>447062</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8664033737384006</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8372607212903692</v>
+        <v>0.8346531345784803</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8984454992932766</v>
+        <v>0.8963839364911165</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>665</v>
@@ -4811,19 +4811,19 @@
         <v>491679</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>473835</v>
+        <v>473943</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>508861</v>
+        <v>509607</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7891884249077243</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7605459443507444</v>
+        <v>0.7607206062472441</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8167665576406105</v>
+        <v>0.8179639976176751</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1048</v>
@@ -4832,19 +4832,19 @@
         <v>923789</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>901749</v>
+        <v>898708</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>947074</v>
+        <v>948230</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.823518579243359</v>
+        <v>0.8235185792433591</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8038714562191068</v>
+        <v>0.8011602517432327</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.844276739583782</v>
+        <v>0.8453074072657746</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>64095</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50014</v>
+        <v>50066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80404</v>
+        <v>80651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06679844533550197</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05212430458985247</v>
+        <v>0.05217836341042661</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08379587385605887</v>
+        <v>0.08405382478228537</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>193</v>
@@ -4957,19 +4957,19 @@
         <v>126429</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110221</v>
+        <v>107921</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146184</v>
+        <v>144585</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1133781494634445</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09884313265291018</v>
+        <v>0.09678089207575089</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1310939580028704</v>
+        <v>0.1296596115077784</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>266</v>
@@ -4978,19 +4978,19 @@
         <v>190524</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>167670</v>
+        <v>169519</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>214687</v>
+        <v>219657</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09183493031758648</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08081945126882817</v>
+        <v>0.08171054992245561</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1034822655209401</v>
+        <v>0.1058775133434972</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>895426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>879117</v>
+        <v>878870</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>909507</v>
+        <v>909455</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9332015546644982</v>
+        <v>0.9332015546644979</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9162041261439412</v>
+        <v>0.9159461752177146</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9478756954101475</v>
+        <v>0.9478216365895732</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1413</v>
@@ -5028,19 +5028,19 @@
         <v>988680</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>968925</v>
+        <v>970524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1004888</v>
+        <v>1007188</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8866218505365555</v>
+        <v>0.8866218505365554</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.86890604199713</v>
+        <v>0.8703403884922217</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9011568673470901</v>
+        <v>0.9032191079242493</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2249</v>
@@ -5049,19 +5049,19 @@
         <v>1884106</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1859943</v>
+        <v>1854973</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1906960</v>
+        <v>1905111</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9081650696824136</v>
+        <v>0.9081650696824135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8965177344790598</v>
+        <v>0.8941224866565027</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9191805487311711</v>
+        <v>0.9182894500775443</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>34142</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24040</v>
+        <v>24291</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47128</v>
+        <v>48084</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03262514827574477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02297198377667689</v>
+        <v>0.02321229780432042</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04503457865958353</v>
+        <v>0.04594829830946731</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -5174,19 +5174,19 @@
         <v>76356</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62646</v>
+        <v>61612</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93334</v>
+        <v>90829</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07288337268364611</v>
+        <v>0.07288337268364613</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05979671077493227</v>
+        <v>0.05881058220477412</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08908979449677777</v>
+        <v>0.08669880146663472</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -5195,19 +5195,19 @@
         <v>110497</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92392</v>
+        <v>94154</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>131347</v>
+        <v>130279</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05276543329203646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04411984747752475</v>
+        <v>0.04496098628382019</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06272177516554757</v>
+        <v>0.06221197667344699</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1012337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>999351</v>
+        <v>998395</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1022439</v>
+        <v>1022188</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9673748517242551</v>
+        <v>0.9673748517242552</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9549654213404165</v>
+        <v>0.9540517016905323</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9770280162233232</v>
+        <v>0.9767877021956795</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1400</v>
@@ -5245,19 +5245,19 @@
         <v>971286</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>954308</v>
+        <v>956813</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>984996</v>
+        <v>986030</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9271166273163538</v>
+        <v>0.927116627316354</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9109102055032223</v>
+        <v>0.9133011985333652</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9402032892250677</v>
+        <v>0.9411894177952259</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2391</v>
@@ -5266,19 +5266,19 @@
         <v>1983624</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1962774</v>
+        <v>1963842</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2001729</v>
+        <v>1999967</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9472345667079636</v>
+        <v>0.9472345667079638</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9372782248344524</v>
+        <v>0.9377880233265531</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9558801525224753</v>
+        <v>0.9550390137161797</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>33245</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21785</v>
+        <v>21872</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48737</v>
+        <v>49358</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03408532014745128</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02233618360896492</v>
+        <v>0.02242488043386338</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04996865799152578</v>
+        <v>0.05060572444790652</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -5391,19 +5391,19 @@
         <v>63213</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50968</v>
+        <v>50579</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78395</v>
+        <v>78016</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.069615108526451</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05613000123189775</v>
+        <v>0.05570162934659256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08633421847750111</v>
+        <v>0.08591733928444609</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -5412,19 +5412,19 @@
         <v>96458</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77176</v>
+        <v>79301</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115405</v>
+        <v>117050</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05121539191589873</v>
+        <v>0.05121539191589872</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0409773548839036</v>
+        <v>0.04210572113078911</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06127537940044531</v>
+        <v>0.06214884124597679</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>942098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>926606</v>
+        <v>925985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>953558</v>
+        <v>953471</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9659146798525488</v>
+        <v>0.9659146798525486</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9500313420084743</v>
+        <v>0.9493942755520934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9776638163910348</v>
+        <v>0.9775751195661364</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1224</v>
@@ -5462,19 +5462,19 @@
         <v>844828</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>829646</v>
+        <v>830025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>857073</v>
+        <v>857462</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9303848914735491</v>
+        <v>0.9303848914735492</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9136657815224989</v>
+        <v>0.914082660715554</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9438699987681022</v>
+        <v>0.9442983706534074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2141</v>
@@ -5483,19 +5483,19 @@
         <v>1786926</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1767979</v>
+        <v>1766334</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1806208</v>
+        <v>1804083</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9487846080841013</v>
+        <v>0.9487846080841014</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9387246205995545</v>
+        <v>0.937851158754023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9590226451160963</v>
+        <v>0.9578942788692109</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>198111</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>172806</v>
+        <v>170455</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>225705</v>
+        <v>227003</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05692704788421459</v>
+        <v>0.05692704788421458</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0496558267791008</v>
+        <v>0.04898006400876353</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06485630837658317</v>
+        <v>0.06522908703956548</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>599</v>
@@ -5608,19 +5608,19 @@
         <v>397338</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>365203</v>
+        <v>363121</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>430300</v>
+        <v>428759</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1075684910504526</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09886889768092652</v>
+        <v>0.09830522255019931</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1164923153247927</v>
+        <v>0.1160748781073844</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>811</v>
@@ -5629,19 +5629,19 @@
         <v>595448</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>556192</v>
+        <v>551903</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>644393</v>
+        <v>638050</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08300213506048382</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07752997698057852</v>
+        <v>0.07693219175452232</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08982471301006334</v>
+        <v>0.08894050227967762</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3281972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3254378</v>
+        <v>3253080</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3307277</v>
+        <v>3309628</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9430729521157856</v>
+        <v>0.9430729521157853</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9351436916234165</v>
+        <v>0.9347709129604344</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9503441732208991</v>
+        <v>0.9510199359912362</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4702</v>
@@ -5679,19 +5679,19 @@
         <v>3296472</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3263510</v>
+        <v>3265051</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3328607</v>
+        <v>3330689</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8924315089495476</v>
+        <v>0.8924315089495474</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8835076846752071</v>
+        <v>0.8839251218926156</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9011311023190736</v>
+        <v>0.9016947774498006</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7829</v>
@@ -5700,19 +5700,19 @@
         <v>6578445</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6529500</v>
+        <v>6535843</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6617701</v>
+        <v>6621990</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9169978649395163</v>
+        <v>0.9169978649395162</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9101752869899369</v>
+        <v>0.9110594977203224</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9224700230194215</v>
+        <v>0.9230678082454776</v>
       </c>
     </row>
     <row r="18">
